--- a/09_MVC_Projeto_W/projW/tmp_snippets/v0.2_DB_records_backup__288def1__v0.2.xlsx
+++ b/09_MVC_Projeto_W/projW/tmp_snippets/v0.2_DB_records_backup__288def1__v0.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>CRITICAL</t>
+  </si>
+  <si>
+    <t>ClienteId</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +439,7 @@
     <col min="8" max="8" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +467,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,8 +499,11 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,8 +531,11 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,8 +563,11 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,8 +595,11 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,6 +626,9 @@
       </c>
       <c r="I6">
         <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
